--- a/BackTest/2020-01-26 BackTest XSR.xlsx
+++ b/BackTest/2020-01-26 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>365421.1863242378</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>45813.91612423782</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.758</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.758</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-254186.0838757622</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.755</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.758</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-254186.0838757622</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.746</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.758</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +603,19 @@
         <v>-918500.1018757622</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>4.746</v>
       </c>
       <c r="J6" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>4.758</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,15 +644,17 @@
         <v>-918500.1018757622</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.73</v>
+      </c>
       <c r="J7" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -659,15 +685,17 @@
         <v>-1389694.112475762</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.73</v>
+      </c>
       <c r="J8" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -698,13 +726,13 @@
         <v>-1389800.124975762</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.727</v>
       </c>
       <c r="J9" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -739,13 +767,13 @@
         <v>-774866.1775757622</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>4.725</v>
       </c>
       <c r="J10" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -780,13 +808,13 @@
         <v>-774551.1775757622</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>4.727</v>
       </c>
       <c r="J11" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -821,13 +849,13 @@
         <v>-774706.1775757622</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>4.73</v>
       </c>
       <c r="J12" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -862,13 +890,13 @@
         <v>-356965.5440757622</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>4.725</v>
       </c>
       <c r="J13" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -903,13 +931,13 @@
         <v>-1076686.076475762</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>4.754</v>
       </c>
       <c r="J14" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -944,13 +972,13 @@
         <v>-467288.3296757623</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>4.737</v>
       </c>
       <c r="J15" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -985,13 +1013,13 @@
         <v>-186760.8913757624</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>4.748</v>
       </c>
       <c r="J16" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1026,13 +1054,13 @@
         <v>-747817.1498757624</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>4.75</v>
       </c>
       <c r="J17" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1067,13 +1095,13 @@
         <v>-297693.8315757624</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4.749</v>
       </c>
       <c r="J18" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,13 +1136,13 @@
         <v>-296360.8670757624</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>4.751</v>
       </c>
       <c r="J19" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1149,13 +1177,13 @@
         <v>-286360.8670757624</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>4.761</v>
       </c>
       <c r="J20" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1190,13 +1218,13 @@
         <v>385889.1348242376</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.765</v>
       </c>
       <c r="J21" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1231,11 +1259,13 @@
         <v>613589.1970242376</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J22" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1270,11 +1300,13 @@
         <v>173055.2423242376</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.788</v>
+      </c>
       <c r="J23" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1309,11 +1341,13 @@
         <v>173055.2423242376</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.786</v>
+      </c>
       <c r="J24" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1348,11 +1382,13 @@
         <v>-336490.6519757624</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.786</v>
+      </c>
       <c r="J25" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1387,11 +1423,13 @@
         <v>288105.1000242376</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.767</v>
+      </c>
       <c r="J26" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1426,11 +1464,13 @@
         <v>789779.1476242376</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.778</v>
+      </c>
       <c r="J27" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1465,11 +1505,13 @@
         <v>431113.3291242376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.785</v>
+      </c>
       <c r="J28" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1504,11 +1546,13 @@
         <v>27049.9741242376</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J29" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1543,11 +1587,13 @@
         <v>766980.6147242377</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.782</v>
+      </c>
       <c r="J30" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1582,11 +1628,13 @@
         <v>406252.3288242377</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J31" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1625,7 +1673,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1660,11 +1708,13 @@
         <v>406252.3288242377</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.783</v>
+      </c>
       <c r="J33" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1703,7 +1753,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1738,11 +1788,13 @@
         <v>387252.3288242377</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.782</v>
+      </c>
       <c r="J35" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1781,7 +1833,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1820,7 +1872,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1859,7 +1911,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1898,7 +1950,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1937,7 +1989,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1976,7 +2028,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2015,7 +2067,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2050,11 +2102,13 @@
         <v>-7056.140775762374</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.754</v>
+      </c>
       <c r="J43" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2093,7 +2147,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2128,11 +2182,13 @@
         <v>-160569.2801757624</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.746</v>
+      </c>
       <c r="J45" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2171,7 +2227,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2210,7 +2266,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2249,7 +2305,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2284,11 +2340,13 @@
         <v>-973318.6639757624</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.737</v>
+      </c>
       <c r="J49" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2323,11 +2381,13 @@
         <v>-1332799.508475762</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.735</v>
+      </c>
       <c r="J50" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2362,11 +2422,13 @@
         <v>-944309.6602757623</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.725</v>
+      </c>
       <c r="J51" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2401,13 +2463,13 @@
         <v>-1382868.457275762</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>4.731</v>
       </c>
       <c r="J52" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2442,13 +2504,13 @@
         <v>-1382868.457275762</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>4.725</v>
       </c>
       <c r="J53" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2483,13 +2545,13 @@
         <v>-923783.9719757622</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>4.725</v>
       </c>
       <c r="J54" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2524,13 +2586,13 @@
         <v>-1426244.713775762</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>4.731</v>
       </c>
       <c r="J55" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2565,13 +2627,13 @@
         <v>-1415783.786818517</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>4.728</v>
       </c>
       <c r="J56" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2606,13 +2668,13 @@
         <v>-1759192.756218517</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>4.748</v>
       </c>
       <c r="J57" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2647,13 +2709,13 @@
         <v>-2135473.349518517</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>4.746</v>
       </c>
       <c r="J58" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2688,13 +2750,13 @@
         <v>-2679559.078818517</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>4.734</v>
       </c>
       <c r="J59" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2729,13 +2791,13 @@
         <v>-1923617.915418517</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>4.73</v>
       </c>
       <c r="J60" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2770,13 +2832,13 @@
         <v>-2451139.699618517</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>4.732</v>
       </c>
       <c r="J61" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2811,13 +2873,13 @@
         <v>-2451139.699618517</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>4.731</v>
       </c>
       <c r="J62" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2852,13 +2914,13 @@
         <v>-1636711.043218517</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>4.731</v>
       </c>
       <c r="J63" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2893,13 +2955,13 @@
         <v>-1340968.950518517</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>4.732</v>
       </c>
       <c r="J64" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2934,13 +2996,13 @@
         <v>-720354.686618517</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>4.733</v>
       </c>
       <c r="J65" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2975,13 +3037,13 @@
         <v>62241.06728148297</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>4.744</v>
       </c>
       <c r="J66" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3016,13 +3078,13 @@
         <v>62241.06728148297</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>4.745</v>
       </c>
       <c r="J67" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3057,13 +3119,13 @@
         <v>495293.597281483</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>4.745</v>
       </c>
       <c r="J68" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3098,11 +3160,13 @@
         <v>495293.597281483</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.746</v>
+      </c>
       <c r="J69" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3137,13 +3201,13 @@
         <v>495293.597281483</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>4.746</v>
       </c>
       <c r="J70" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3178,13 +3242,13 @@
         <v>495356.377081483</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>4.746</v>
       </c>
       <c r="J71" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3219,13 +3283,13 @@
         <v>495513.384381483</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>4.747</v>
       </c>
       <c r="J72" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3260,13 +3324,13 @@
         <v>495407.371881483</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>4.748</v>
       </c>
       <c r="J73" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3301,13 +3365,13 @@
         <v>503256.614181483</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>4.747</v>
       </c>
       <c r="J74" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3342,13 +3406,13 @@
         <v>503256.614181483</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>4.748</v>
       </c>
       <c r="J75" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3383,13 +3447,13 @@
         <v>503256.614181483</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>4.748</v>
       </c>
       <c r="J76" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3424,13 +3488,13 @@
         <v>485046.611781483</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>4.748</v>
       </c>
       <c r="J77" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3465,13 +3529,13 @@
         <v>981306.5923814829</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>4.747</v>
       </c>
       <c r="J78" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3506,13 +3570,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>4.748</v>
       </c>
       <c r="J79" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3547,13 +3611,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>4.749</v>
       </c>
       <c r="J80" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3588,11 +3652,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.749</v>
+      </c>
       <c r="J81" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3627,13 +3693,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>4.749</v>
       </c>
       <c r="J82" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3668,13 +3734,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>4.749</v>
       </c>
       <c r="J83" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3709,13 +3775,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>4.749</v>
       </c>
       <c r="J84" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3750,13 +3816,13 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>4.749</v>
       </c>
       <c r="J85" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3791,13 +3857,13 @@
         <v>1790263.625181483</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>4.749</v>
       </c>
       <c r="J86" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3832,11 +3898,13 @@
         <v>1791263.625181483</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J87" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3871,11 +3939,13 @@
         <v>1731845.528481483</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4.754</v>
+      </c>
       <c r="J88" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3910,11 +3980,13 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.749</v>
+      </c>
       <c r="J89" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3949,11 +4021,13 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4.789</v>
+      </c>
       <c r="J90" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3988,11 +4062,13 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4.789</v>
+      </c>
       <c r="J91" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4027,11 +4103,13 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4.789</v>
+      </c>
       <c r="J92" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4070,7 +4148,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4109,7 +4187,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4144,11 +4222,13 @@
         <v>1126567.049981483</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J95" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4187,7 +4267,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4226,7 +4306,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4261,11 +4341,13 @@
         <v>1856579.828481482</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J98" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4300,11 +4382,13 @@
         <v>1411839.455881482</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J99" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4339,11 +4423,13 @@
         <v>1377185.573381482</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4.749</v>
+      </c>
       <c r="J100" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4378,11 +4464,13 @@
         <v>1377185.573381482</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4.748</v>
+      </c>
       <c r="J101" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4421,7 +4509,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4460,7 +4548,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4499,7 +4587,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4538,7 +4626,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4573,13 +4661,11 @@
         <v>-33667.6273185176</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4.747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4618,7 +4704,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4657,7 +4743,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4696,7 +4782,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4731,11 +4817,13 @@
         <v>-316480.7167185175</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.752</v>
+      </c>
       <c r="J110" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4770,11 +4858,13 @@
         <v>69904.93198148254</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J111" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4809,11 +4899,13 @@
         <v>70855.81628148255</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4.751</v>
+      </c>
       <c r="J112" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4848,11 +4940,13 @@
         <v>572107.717229949</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4.752</v>
+      </c>
       <c r="J113" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4887,11 +4981,13 @@
         <v>1225323.770529949</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4.756</v>
+      </c>
       <c r="J114" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4926,11 +5022,13 @@
         <v>907423.1898299491</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4.759</v>
+      </c>
       <c r="J115" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4969,7 +5067,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5008,7 +5106,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5043,13 +5141,13 @@
         <v>-49236.96787005098</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>4.756</v>
       </c>
       <c r="J118" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5084,11 +5182,13 @@
         <v>-49911.30897005098</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4.752</v>
+      </c>
       <c r="J119" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5123,13 +5223,13 @@
         <v>-766970.569670051</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>4.751</v>
       </c>
       <c r="J120" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5164,13 +5264,13 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>4.749</v>
       </c>
       <c r="J121" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5205,13 +5305,13 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>4.75</v>
       </c>
       <c r="J122" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5246,13 +5346,13 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>4.75</v>
       </c>
       <c r="J123" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5287,13 +5387,13 @@
         <v>-46876.65617005096</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>4.75</v>
       </c>
       <c r="J124" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5328,11 +5428,13 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4.751</v>
+      </c>
       <c r="J125" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5367,13 +5469,13 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>4.752</v>
       </c>
       <c r="J126" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5408,11 +5510,13 @@
         <v>533992.0158299491</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>4.752</v>
+      </c>
       <c r="J127" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5447,11 +5551,13 @@
         <v>533992.0158299491</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>4.757</v>
+      </c>
       <c r="J128" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5486,11 +5592,13 @@
         <v>468830.504529949</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>4.757</v>
+      </c>
       <c r="J129" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5525,13 +5633,13 @@
         <v>1187025.247229949</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>4.753</v>
       </c>
       <c r="J130" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5566,13 +5674,13 @@
         <v>1184362.110029949</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>4.754</v>
       </c>
       <c r="J131" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5607,13 +5715,13 @@
         <v>1525344.295929949</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>4.753</v>
       </c>
       <c r="J132" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5648,13 +5756,13 @@
         <v>968811.709529949</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>4.758</v>
       </c>
       <c r="J133" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5689,13 +5797,13 @@
         <v>1716214.107129949</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>4.754</v>
       </c>
       <c r="J134" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5730,13 +5838,13 @@
         <v>1716214.107129949</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>4.758</v>
       </c>
       <c r="J135" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5771,13 +5879,13 @@
         <v>1354624.843729949</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>4.758</v>
       </c>
       <c r="J136" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5816,7 +5924,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5851,11 +5959,13 @@
         <v>2095916.287629949</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4.758</v>
+      </c>
       <c r="J138" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5890,11 +6000,13 @@
         <v>1987753.632629949</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4.759</v>
+      </c>
       <c r="J139" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5929,11 +6041,13 @@
         <v>2466017.783829949</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.754</v>
+      </c>
       <c r="J140" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5968,11 +6082,13 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4.758</v>
+      </c>
       <c r="J141" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6007,11 +6123,13 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J142" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6046,11 +6164,13 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J143" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6089,7 +6209,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6124,11 +6244,13 @@
         <v>2769001.846581482</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>4.775</v>
+      </c>
       <c r="J145" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6167,7 +6289,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6206,7 +6328,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6245,7 +6367,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6284,7 +6406,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6323,7 +6445,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6362,7 +6484,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6401,7 +6523,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6440,7 +6562,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6479,7 +6601,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6518,7 +6640,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6557,7 +6679,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6596,7 +6718,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6635,7 +6757,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6674,7 +6796,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6713,7 +6835,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6752,7 +6874,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6791,7 +6913,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6830,7 +6952,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6869,7 +6991,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6908,7 +7030,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6947,7 +7069,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6986,7 +7108,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7025,7 +7147,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7064,7 +7186,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7103,7 +7225,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7142,7 +7264,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7181,7 +7303,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7220,7 +7342,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7259,7 +7381,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7298,7 +7420,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7337,7 +7459,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7376,7 +7498,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7415,7 +7537,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7454,7 +7576,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7493,7 +7615,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7532,7 +7654,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7571,7 +7693,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7610,7 +7732,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7649,7 +7771,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7688,7 +7810,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7727,7 +7849,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7766,7 +7888,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7805,7 +7927,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7844,7 +7966,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7883,7 +8005,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7922,7 +8044,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7961,7 +8083,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8000,7 +8122,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8039,7 +8161,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8078,7 +8200,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8117,7 +8239,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8156,7 +8278,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8195,7 +8317,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8234,7 +8356,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8273,7 +8395,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8312,7 +8434,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8351,7 +8473,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8390,7 +8512,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8429,7 +8551,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8468,7 +8590,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8503,11 +8625,13 @@
         <v>5885735.813781483</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>4.786</v>
+      </c>
       <c r="J206" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8546,7 +8670,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8581,11 +8705,13 @@
         <v>6107106.817581483</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>4.782</v>
+      </c>
       <c r="J208" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8624,7 +8750,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8663,7 +8789,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8702,7 +8828,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8741,7 +8867,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8780,7 +8906,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8819,7 +8945,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8858,7 +8984,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8897,7 +9023,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8936,7 +9062,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8975,7 +9101,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9014,7 +9140,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9053,7 +9179,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9092,7 +9218,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9131,7 +9257,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9170,7 +9296,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9209,7 +9335,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9248,7 +9374,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9287,7 +9413,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9326,7 +9452,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9361,11 +9487,13 @@
         <v>5382131.035681483</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>4.78</v>
+      </c>
       <c r="J228" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9400,11 +9528,13 @@
         <v>5978355.175481483</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>4.78</v>
+      </c>
       <c r="J229" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9439,11 +9569,13 @@
         <v>5412581.588481483</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J230" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9482,7 +9614,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9517,11 +9649,13 @@
         <v>4822554.483881483</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>4.783</v>
+      </c>
       <c r="J232" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9560,7 +9694,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9599,7 +9733,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9638,7 +9772,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9677,7 +9811,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9716,7 +9850,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9755,7 +9889,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9794,7 +9928,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9833,7 +9967,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9872,7 +10006,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9911,7 +10045,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9950,7 +10084,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9985,11 +10119,13 @@
         <v>5670084.776081483</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J244" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10028,7 +10164,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10063,11 +10199,13 @@
         <v>5670084.776081483</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>4.784</v>
+      </c>
       <c r="J246" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10106,7 +10244,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10141,11 +10279,13 @@
         <v>5656408.192781483</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>4.785</v>
+      </c>
       <c r="J248" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10184,7 +10324,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10223,7 +10363,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10262,7 +10402,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10301,7 +10441,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10340,7 +10480,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10379,7 +10519,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10418,7 +10558,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10457,7 +10597,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10496,7 +10636,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10535,7 +10675,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10574,7 +10714,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10613,7 +10753,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10652,7 +10792,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10691,7 +10831,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10730,7 +10870,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10769,7 +10909,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10808,7 +10948,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10847,7 +10987,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10886,7 +11026,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10925,7 +11065,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10964,7 +11104,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11003,7 +11143,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11042,7 +11182,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11081,7 +11221,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11120,7 +11260,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11159,7 +11299,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11198,7 +11338,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11237,7 +11377,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11276,7 +11416,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11315,7 +11455,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11354,7 +11494,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11393,7 +11533,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11432,7 +11572,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11471,7 +11611,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11510,7 +11650,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11549,7 +11689,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11588,7 +11728,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11627,7 +11767,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11666,7 +11806,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11705,7 +11845,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11744,7 +11884,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11783,7 +11923,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11822,7 +11962,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11861,7 +12001,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11900,7 +12040,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11939,7 +12079,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11978,7 +12118,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12017,7 +12157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12056,7 +12196,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12095,7 +12235,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12134,7 +12274,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12173,7 +12313,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12212,7 +12352,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12251,7 +12391,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12290,7 +12430,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12329,7 +12469,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12368,7 +12508,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12407,7 +12547,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12446,7 +12586,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12485,7 +12625,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12524,7 +12664,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12563,7 +12703,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12602,7 +12742,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12641,7 +12781,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12680,7 +12820,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12719,7 +12859,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12758,7 +12898,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12797,7 +12937,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12836,7 +12976,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12875,7 +13015,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12914,7 +13054,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12953,7 +13093,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12992,7 +13132,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13031,7 +13171,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13070,7 +13210,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13109,7 +13249,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13148,7 +13288,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13187,7 +13327,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13226,7 +13366,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13265,7 +13405,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13304,7 +13444,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13343,7 +13483,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13382,7 +13522,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13421,7 +13561,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13460,7 +13600,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13499,7 +13639,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13538,7 +13678,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13577,7 +13717,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13616,7 +13756,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13655,7 +13795,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13694,7 +13834,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13733,7 +13873,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13772,7 +13912,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13811,7 +13951,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13850,7 +13990,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13889,7 +14029,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13928,7 +14068,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13967,7 +14107,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14006,7 +14146,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14045,7 +14185,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14084,7 +14224,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14123,7 +14263,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14162,7 +14302,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14201,7 +14341,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14240,7 +14380,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14279,7 +14419,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14318,7 +14458,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14357,7 +14497,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14396,7 +14536,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14435,7 +14575,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14474,7 +14614,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14513,7 +14653,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14552,7 +14692,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14591,7 +14731,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14630,7 +14770,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14669,7 +14809,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14708,7 +14848,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14747,7 +14887,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14786,7 +14926,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14825,7 +14965,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14864,7 +15004,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14903,7 +15043,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14942,7 +15082,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14981,7 +15121,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15020,7 +15160,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15059,7 +15199,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15098,7 +15238,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15137,7 +15277,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15176,7 +15316,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15215,7 +15355,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15254,7 +15394,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15293,7 +15433,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15332,7 +15472,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15371,7 +15511,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15410,7 +15550,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15449,7 +15589,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15488,7 +15628,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15527,7 +15667,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15566,7 +15706,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15605,7 +15745,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15644,7 +15784,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15683,7 +15823,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15722,7 +15862,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15761,7 +15901,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15800,7 +15940,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15839,7 +15979,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15878,7 +16018,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15917,7 +16057,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15956,7 +16096,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15995,7 +16135,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16034,7 +16174,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16073,7 +16213,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16112,7 +16252,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16151,7 +16291,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16190,7 +16330,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16229,7 +16369,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16268,7 +16408,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16307,7 +16447,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16346,7 +16486,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16385,7 +16525,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16424,7 +16564,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16463,7 +16603,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16502,7 +16642,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16541,7 +16681,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16580,7 +16720,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16619,7 +16759,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16658,7 +16798,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16697,7 +16837,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16736,7 +16876,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16775,7 +16915,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16814,7 +16954,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16853,7 +16993,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16892,7 +17032,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16931,7 +17071,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16970,7 +17110,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -17009,7 +17149,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17048,7 +17188,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17087,7 +17227,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17126,7 +17266,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17165,7 +17305,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17204,7 +17344,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17243,7 +17383,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17282,7 +17422,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17321,7 +17461,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17360,7 +17500,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17399,7 +17539,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17438,7 +17578,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17477,7 +17617,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17516,7 +17656,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17555,7 +17695,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17594,7 +17734,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17633,7 +17773,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17672,7 +17812,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17711,7 +17851,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17750,7 +17890,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17789,7 +17929,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17828,7 +17968,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17867,7 +18007,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17906,7 +18046,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17945,7 +18085,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17984,7 +18124,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18023,7 +18163,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18062,7 +18202,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18101,7 +18241,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18140,7 +18280,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18179,7 +18319,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18218,7 +18358,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18257,7 +18397,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -18296,7 +18436,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -18335,7 +18475,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -18374,7 +18514,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18413,7 +18553,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18452,7 +18592,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18491,7 +18631,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18530,7 +18670,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18569,7 +18709,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18608,7 +18748,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18647,7 +18787,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18686,7 +18826,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18725,7 +18865,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18764,7 +18904,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18803,7 +18943,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18842,7 +18982,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18881,7 +19021,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18920,7 +19060,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18959,7 +19099,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18998,7 +19138,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -19037,7 +19177,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -19076,7 +19216,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -19115,7 +19255,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -19154,7 +19294,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -19193,7 +19333,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -19232,7 +19372,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -19271,7 +19411,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -19310,7 +19450,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -19349,7 +19489,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -19388,7 +19528,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -19427,7 +19567,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -19466,7 +19606,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -19505,7 +19645,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -19544,7 +19684,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -19583,7 +19723,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -19622,7 +19762,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19661,7 +19801,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19700,7 +19840,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19739,7 +19879,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19778,7 +19918,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19817,7 +19957,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19856,7 +19996,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19895,7 +20035,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19934,7 +20074,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19973,7 +20113,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -20012,7 +20152,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -20051,7 +20191,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -20090,7 +20230,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -20129,7 +20269,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -20168,7 +20308,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -20207,7 +20347,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -20246,7 +20386,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -20285,7 +20425,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -20324,7 +20464,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -20363,7 +20503,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -20402,7 +20542,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -20441,7 +20581,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -20480,7 +20620,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -20519,7 +20659,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -20558,7 +20698,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -20597,7 +20737,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -20636,7 +20776,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -20675,7 +20815,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20714,7 +20854,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20753,7 +20893,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20792,7 +20932,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20831,7 +20971,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20870,7 +21010,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20909,7 +21049,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20948,7 +21088,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20987,7 +21127,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -21026,7 +21166,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -21065,7 +21205,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -21104,7 +21244,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -21143,7 +21283,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -21182,7 +21322,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -21221,7 +21361,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -21260,7 +21400,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -21299,7 +21439,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -21338,7 +21478,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -21377,7 +21517,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -21416,7 +21556,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -21451,11 +21591,11 @@
         <v>17471974.40360775</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -21494,7 +21634,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -21529,11 +21669,11 @@
         <v>19261415.42560775</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -21568,11 +21708,11 @@
         <v>19290308.726928</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -21611,7 +21751,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -21650,7 +21790,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -21689,7 +21829,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -21728,7 +21868,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -21767,7 +21907,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -21802,11 +21942,11 @@
         <v>19290883.15716339</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -21841,11 +21981,11 @@
         <v>19290883.15716339</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -21884,7 +22024,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -21923,7 +22063,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -21962,7 +22102,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -22001,7 +22141,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -22040,7 +22180,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -22079,7 +22219,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -22118,7 +22258,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -22157,7 +22297,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -22196,7 +22336,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -22235,7 +22375,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -22274,7 +22414,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -22313,7 +22453,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -22352,7 +22492,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -22391,7 +22531,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -22430,7 +22570,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -22469,7 +22609,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -22504,11 +22644,11 @@
         <v>27222692.52599402</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -22547,7 +22687,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -22586,7 +22726,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -22625,7 +22765,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -22664,7 +22804,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -22703,7 +22843,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -22742,7 +22882,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -22781,7 +22921,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -22820,7 +22960,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -22859,7 +22999,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -22898,7 +23038,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -22933,21 +23073,23 @@
         <v>25950036.12103648</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>4.746</v>
+        <v>4.758</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
+        <v>1.085794451450189</v>
+      </c>
+      <c r="M576" t="n">
+        <v>1.000630914826498</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -22972,17 +23114,11 @@
         <v>26279540.17163648</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23011,17 +23147,11 @@
         <v>25504959.61703648</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23050,17 +23180,11 @@
         <v>23779869.59863648</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23089,17 +23213,11 @@
         <v>23590959.98613648</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23128,17 +23246,11 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23167,17 +23279,11 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23206,17 +23312,11 @@
         <v>23406869.41973647</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23245,17 +23345,11 @@
         <v>23282886.26303647</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23284,17 +23378,11 @@
         <v>23897716.60213647</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23323,17 +23411,11 @@
         <v>24105240.36983648</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23362,17 +23444,11 @@
         <v>24733366.35255398</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23401,17 +23477,11 @@
         <v>24163846.58145244</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23440,17 +23510,11 @@
         <v>24164220.4492497</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23479,17 +23543,11 @@
         <v>24099354.6999497</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23518,17 +23576,11 @@
         <v>23595548.0588497</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23560,14 +23612,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23596,17 +23642,11 @@
         <v>22543913.0438497</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23635,17 +23675,11 @@
         <v>22541247.6898497</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23677,14 +23711,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23716,14 +23744,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23752,17 +23774,11 @@
         <v>21318369.3026497</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -23791,17 +23807,11 @@
         <v>20390669.56929042</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -23833,14 +23843,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -23869,17 +23873,11 @@
         <v>21265133.93286866</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -23911,14 +23909,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -23947,17 +23939,11 @@
         <v>20780231.41287421</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -23986,17 +23972,11 @@
         <v>21402386.75682722</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24025,17 +24005,11 @@
         <v>21294265.52578024</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24064,17 +24038,11 @@
         <v>20855673.85448024</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24103,17 +24071,11 @@
         <v>21602055.79638024</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24142,17 +24104,11 @@
         <v>20868443.80998024</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24181,17 +24137,11 @@
         <v>20416823.86028023</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24220,17 +24170,11 @@
         <v>20448289.17353462</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24262,14 +24206,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24301,14 +24239,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24340,14 +24272,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24376,17 +24302,11 @@
         <v>24569415.39372684</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24418,14 +24338,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24457,14 +24371,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24496,14 +24404,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24535,14 +24437,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24574,14 +24470,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24613,14 +24503,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24652,14 +24536,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24691,14 +24569,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24730,14 +24602,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24769,14 +24635,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24805,23 +24665,15 @@
         <v>24920581.65254411</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
-        <v>1.091713021491783</v>
-      </c>
-      <c r="M624" t="n">
-        <v>1.005919661733615</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -24846,7 +24698,7 @@
         <v>25100429.4190761</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24879,7 +24731,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24912,7 +24764,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24945,7 +24797,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24978,7 +24830,7 @@
         <v>24983132.79496315</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -25011,7 +24863,7 @@
         <v>24991218.78725508</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -25044,7 +24896,7 @@
         <v>23759127.03855996</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -25077,7 +24929,7 @@
         <v>23778562.23745996</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -25110,7 +24962,7 @@
         <v>23184572.77305189</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -25143,7 +24995,7 @@
         <v>21931130.93805189</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25176,7 +25028,7 @@
         <v>21235081.52625189</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25209,7 +25061,7 @@
         <v>21891862.03605188</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25242,7 +25094,7 @@
         <v>21892451.54445188</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25275,7 +25127,7 @@
         <v>21992540.77055189</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25308,7 +25160,7 @@
         <v>20778823.31525189</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25803,7 +25655,7 @@
         <v>17889609.87294201</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25902,7 +25754,7 @@
         <v>16555071.43454201</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25935,7 +25787,7 @@
         <v>16665392.83234201</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25968,7 +25820,7 @@
         <v>17105547.97454201</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -26001,7 +25853,7 @@
         <v>17105547.97454201</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -26034,7 +25886,7 @@
         <v>17267710.4536778</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -26067,7 +25919,7 @@
         <v>17620375.42775707</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26397,7 +26249,7 @@
         <v>16586950.46725139</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26463,7 +26315,7 @@
         <v>16884755.75205139</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26496,7 +26348,7 @@
         <v>17543751.65835139</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26562,7 +26414,7 @@
         <v>17428309.15705139</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26595,7 +26447,7 @@
         <v>17035672.16035139</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26628,7 +26480,7 @@
         <v>18032303.73435139</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26661,7 +26513,7 @@
         <v>18302898.40535139</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26694,7 +26546,7 @@
         <v>17653710.54055139</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26727,7 +26579,7 @@
         <v>17653710.54055139</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26760,7 +26612,7 @@
         <v>17389849.69925139</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26793,7 +26645,7 @@
         <v>17039930.19675139</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26826,7 +26678,7 @@
         <v>17550084.13225139</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26859,7 +26711,7 @@
         <v>17528800.18665139</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26892,7 +26744,7 @@
         <v>17106298.65845139</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26925,7 +26777,7 @@
         <v>17411860.01585139</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26958,7 +26810,7 @@
         <v>17412147.67675139</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26991,7 +26843,7 @@
         <v>17411946.02485139</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27002,6 +26854,6 @@
       <c r="M690" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest XSR.xlsx
+++ b/BackTest/2020-01-26 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>365421.1863242378</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>45813.91612423782</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-254186.0838757622</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.755</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-254186.0838757622</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-918500.1018757622</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.746</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-918500.1018757622</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-1389694.112475762</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-1389800.124975762</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.727</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -773,13 +721,9 @@
         <v>4.725</v>
       </c>
       <c r="J10" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>4.725</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -814,11 +758,11 @@
         <v>4.727</v>
       </c>
       <c r="J11" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -855,11 +799,11 @@
         <v>4.73</v>
       </c>
       <c r="J12" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -896,7 +840,7 @@
         <v>4.725</v>
       </c>
       <c r="J13" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -937,7 +881,7 @@
         <v>4.754</v>
       </c>
       <c r="J14" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -972,13 +916,11 @@
         <v>-467288.3296757623</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1013,13 +955,11 @@
         <v>-186760.8913757624</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1054,13 +994,11 @@
         <v>-747817.1498757624</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1095,13 +1033,11 @@
         <v>-297693.8315757624</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1136,13 +1072,11 @@
         <v>-296360.8670757624</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1177,13 +1111,11 @@
         <v>-286360.8670757624</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1218,13 +1150,11 @@
         <v>385889.1348242376</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1259,13 +1189,11 @@
         <v>613589.1970242376</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1300,13 +1228,11 @@
         <v>173055.2423242376</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1341,13 +1267,11 @@
         <v>173055.2423242376</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1382,13 +1306,11 @@
         <v>-336490.6519757624</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1423,13 +1345,11 @@
         <v>288105.1000242376</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1464,13 +1384,11 @@
         <v>789779.1476242376</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1505,13 +1423,11 @@
         <v>431113.3291242376</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1546,13 +1462,11 @@
         <v>27049.9741242376</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1587,13 +1501,11 @@
         <v>766980.6147242377</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1628,13 +1540,11 @@
         <v>406252.3288242377</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1673,7 +1583,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1708,13 +1618,11 @@
         <v>406252.3288242377</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1753,7 +1661,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1788,13 +1696,11 @@
         <v>387252.3288242377</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1833,7 +1739,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1872,7 +1778,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1911,7 +1817,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1950,7 +1856,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1989,7 +1895,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2028,7 +1934,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2063,11 +1969,13 @@
         <v>-6370.374675762374</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.767</v>
+      </c>
       <c r="J42" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2102,13 +2010,11 @@
         <v>-7056.140775762374</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2143,11 +2049,13 @@
         <v>-826636.5661757623</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.749</v>
+      </c>
       <c r="J44" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2188,7 +2096,7 @@
         <v>4.746</v>
       </c>
       <c r="J45" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2223,11 +2131,13 @@
         <v>-626571.4412757624</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.747</v>
+      </c>
       <c r="J46" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2262,11 +2172,13 @@
         <v>-679040.1175757624</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.739</v>
+      </c>
       <c r="J47" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2301,11 +2213,13 @@
         <v>-680109.9654757625</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.738</v>
+      </c>
       <c r="J48" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2346,7 +2260,7 @@
         <v>4.737</v>
       </c>
       <c r="J49" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2387,7 +2301,7 @@
         <v>4.735</v>
       </c>
       <c r="J50" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2428,7 +2342,7 @@
         <v>4.725</v>
       </c>
       <c r="J51" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2469,7 +2383,7 @@
         <v>4.731</v>
       </c>
       <c r="J52" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2510,7 +2424,7 @@
         <v>4.725</v>
       </c>
       <c r="J53" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2551,7 +2465,7 @@
         <v>4.725</v>
       </c>
       <c r="J54" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2592,7 +2506,7 @@
         <v>4.731</v>
       </c>
       <c r="J55" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2633,7 +2547,7 @@
         <v>4.728</v>
       </c>
       <c r="J56" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2674,7 +2588,7 @@
         <v>4.748</v>
       </c>
       <c r="J57" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2715,7 +2629,7 @@
         <v>4.746</v>
       </c>
       <c r="J58" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2756,7 +2670,7 @@
         <v>4.734</v>
       </c>
       <c r="J59" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2797,7 +2711,7 @@
         <v>4.73</v>
       </c>
       <c r="J60" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2838,7 +2752,7 @@
         <v>4.732</v>
       </c>
       <c r="J61" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2879,7 +2793,7 @@
         <v>4.731</v>
       </c>
       <c r="J62" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2920,7 +2834,7 @@
         <v>4.731</v>
       </c>
       <c r="J63" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2961,7 +2875,7 @@
         <v>4.732</v>
       </c>
       <c r="J64" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3002,7 +2916,7 @@
         <v>4.733</v>
       </c>
       <c r="J65" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3043,7 +2957,7 @@
         <v>4.744</v>
       </c>
       <c r="J66" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3084,7 +2998,7 @@
         <v>4.745</v>
       </c>
       <c r="J67" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3125,7 +3039,7 @@
         <v>4.745</v>
       </c>
       <c r="J68" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3166,7 +3080,7 @@
         <v>4.746</v>
       </c>
       <c r="J69" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3207,7 +3121,7 @@
         <v>4.746</v>
       </c>
       <c r="J70" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3248,7 +3162,7 @@
         <v>4.746</v>
       </c>
       <c r="J71" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3289,7 +3203,7 @@
         <v>4.747</v>
       </c>
       <c r="J72" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3330,7 +3244,7 @@
         <v>4.748</v>
       </c>
       <c r="J73" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3371,7 +3285,7 @@
         <v>4.747</v>
       </c>
       <c r="J74" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3412,7 +3326,7 @@
         <v>4.748</v>
       </c>
       <c r="J75" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3453,7 +3367,7 @@
         <v>4.748</v>
       </c>
       <c r="J76" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3494,7 +3408,7 @@
         <v>4.748</v>
       </c>
       <c r="J77" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3535,7 +3449,7 @@
         <v>4.747</v>
       </c>
       <c r="J78" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3576,7 +3490,7 @@
         <v>4.748</v>
       </c>
       <c r="J79" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3617,7 +3531,7 @@
         <v>4.749</v>
       </c>
       <c r="J80" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3658,7 +3572,7 @@
         <v>4.749</v>
       </c>
       <c r="J81" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3699,7 +3613,7 @@
         <v>4.749</v>
       </c>
       <c r="J82" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3740,7 +3654,7 @@
         <v>4.749</v>
       </c>
       <c r="J83" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3781,7 +3695,7 @@
         <v>4.749</v>
       </c>
       <c r="J84" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3822,7 +3736,7 @@
         <v>4.749</v>
       </c>
       <c r="J85" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3863,7 +3777,7 @@
         <v>4.749</v>
       </c>
       <c r="J86" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3904,7 +3818,7 @@
         <v>4.75</v>
       </c>
       <c r="J87" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3945,7 +3859,7 @@
         <v>4.754</v>
       </c>
       <c r="J88" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3986,7 +3900,7 @@
         <v>4.749</v>
       </c>
       <c r="J89" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4021,13 +3935,11 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4062,13 +3974,11 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4103,13 +4013,11 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4148,7 +4056,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4187,7 +4095,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4222,13 +4130,11 @@
         <v>1126567.049981483</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4267,7 +4173,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4306,7 +4212,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4341,13 +4247,11 @@
         <v>1856579.828481482</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4382,13 +4286,11 @@
         <v>1411839.455881482</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4423,13 +4325,11 @@
         <v>1377185.573381482</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4464,13 +4364,11 @@
         <v>1377185.573381482</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4509,7 +4407,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4548,7 +4446,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4587,7 +4485,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4626,7 +4524,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4665,7 +4563,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4704,7 +4602,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4743,7 +4641,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4782,7 +4680,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4817,13 +4715,11 @@
         <v>-316480.7167185175</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>4.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4858,13 +4754,11 @@
         <v>69904.93198148254</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4899,13 +4793,11 @@
         <v>70855.81628148255</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4940,13 +4832,11 @@
         <v>572107.717229949</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4981,13 +4871,11 @@
         <v>1225323.770529949</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4.756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5022,13 +4910,11 @@
         <v>907423.1898299491</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>4.759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5067,7 +4953,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5106,7 +4992,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5141,13 +5027,11 @@
         <v>-49236.96787005098</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4.756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5182,13 +5066,11 @@
         <v>-49911.30897005098</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>4.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5223,13 +5105,11 @@
         <v>-766970.569670051</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5264,13 +5144,11 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5305,13 +5183,11 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5346,13 +5222,11 @@
         <v>-329985.096570051</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5387,13 +5261,11 @@
         <v>-46876.65617005096</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5428,13 +5300,11 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>4.751</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5469,13 +5339,11 @@
         <v>-46771.14407005096</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5510,13 +5378,11 @@
         <v>533992.0158299491</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>4.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5551,13 +5417,11 @@
         <v>533992.0158299491</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4.757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5592,13 +5456,11 @@
         <v>468830.504529949</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>4.757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5633,13 +5495,11 @@
         <v>1187025.247229949</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>4.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5674,13 +5534,11 @@
         <v>1184362.110029949</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>4.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5715,13 +5573,11 @@
         <v>1525344.295929949</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>4.753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5756,13 +5612,11 @@
         <v>968811.709529949</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5797,13 +5651,11 @@
         <v>1716214.107129949</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>4.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5838,13 +5690,11 @@
         <v>1716214.107129949</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5879,13 +5729,11 @@
         <v>1354624.843729949</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5924,7 +5772,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5959,13 +5807,11 @@
         <v>2095916.287629949</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -6000,13 +5846,11 @@
         <v>1987753.632629949</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4.759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6041,13 +5885,11 @@
         <v>2466017.783829949</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6082,13 +5924,11 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4.758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6123,13 +5963,11 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6164,13 +6002,11 @@
         <v>2467017.783829949</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6209,7 +6045,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6244,13 +6080,11 @@
         <v>2769001.846581482</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4.775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6289,7 +6123,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6328,7 +6162,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6367,7 +6201,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6406,7 +6240,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6445,7 +6279,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6484,7 +6318,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6523,7 +6357,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6562,7 +6396,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6601,7 +6435,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6640,7 +6474,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6679,7 +6513,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6718,7 +6552,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6757,7 +6591,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6796,7 +6630,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6835,7 +6669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6874,7 +6708,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6913,7 +6747,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6952,7 +6786,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6991,7 +6825,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -7030,7 +6864,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7069,7 +6903,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7108,7 +6942,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7147,7 +6981,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7186,7 +7020,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7225,7 +7059,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7264,7 +7098,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7303,7 +7137,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7342,7 +7176,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7381,7 +7215,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7420,7 +7254,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7459,7 +7293,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7498,7 +7332,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7537,7 +7371,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7576,7 +7410,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7615,7 +7449,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7654,7 +7488,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7693,7 +7527,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7732,7 +7566,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7771,7 +7605,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7810,7 +7644,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7849,7 +7683,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7888,7 +7722,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7927,7 +7761,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7966,7 +7800,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -8005,7 +7839,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -8044,7 +7878,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -8083,7 +7917,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8122,7 +7956,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8161,7 +7995,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8200,7 +8034,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8239,7 +8073,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8278,7 +8112,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8317,7 +8151,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8356,7 +8190,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8395,7 +8229,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8434,7 +8268,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8473,7 +8307,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8512,7 +8346,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8551,7 +8385,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8590,7 +8424,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8625,13 +8459,11 @@
         <v>5885735.813781483</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8670,7 +8502,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8705,13 +8537,11 @@
         <v>6107106.817581483</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>4.782</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8750,7 +8580,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8789,7 +8619,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8828,7 +8658,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8867,7 +8697,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8906,7 +8736,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8945,7 +8775,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8984,7 +8814,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -9023,7 +8853,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9062,7 +8892,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9101,7 +8931,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9140,7 +8970,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9179,7 +9009,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9218,7 +9048,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9257,7 +9087,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9296,7 +9126,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9335,7 +9165,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9374,7 +9204,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9413,7 +9243,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9452,7 +9282,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9487,13 +9317,11 @@
         <v>5382131.035681483</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9528,13 +9356,11 @@
         <v>5978355.175481483</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>4.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9569,13 +9395,11 @@
         <v>5412581.588481483</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9614,7 +9438,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9649,13 +9473,11 @@
         <v>4822554.483881483</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.783</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9694,7 +9516,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9733,7 +9555,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9772,7 +9594,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9811,7 +9633,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9850,7 +9672,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9889,7 +9711,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9928,7 +9750,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9967,7 +9789,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -10006,7 +9828,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -10045,7 +9867,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -10084,7 +9906,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -10119,13 +9941,11 @@
         <v>5670084.776081483</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10164,7 +9984,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10199,13 +10019,11 @@
         <v>5670084.776081483</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>4.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10244,7 +10062,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10279,13 +10097,11 @@
         <v>5656408.192781483</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>4.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10324,7 +10140,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10363,7 +10179,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10402,7 +10218,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10441,7 +10257,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10480,7 +10296,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10519,7 +10335,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10558,7 +10374,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10597,7 +10413,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10636,7 +10452,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10675,7 +10491,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10714,7 +10530,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10753,7 +10569,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10792,7 +10608,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10831,7 +10647,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10870,7 +10686,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10909,7 +10725,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10948,7 +10764,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10987,7 +10803,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -11026,7 +10842,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -11065,7 +10881,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -11104,7 +10920,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11143,7 +10959,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11182,7 +10998,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11221,7 +11037,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11260,7 +11076,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11299,7 +11115,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11338,7 +11154,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11377,7 +11193,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11416,7 +11232,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11455,7 +11271,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11494,7 +11310,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11533,7 +11349,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11572,7 +11388,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11611,7 +11427,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11650,7 +11466,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11689,7 +11505,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11728,7 +11544,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11767,7 +11583,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11806,7 +11622,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11845,7 +11661,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11884,7 +11700,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11923,7 +11739,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11962,7 +11778,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -12001,7 +11817,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -12040,7 +11856,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -12079,7 +11895,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12118,7 +11934,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12157,7 +11973,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12196,7 +12012,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12235,7 +12051,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12274,7 +12090,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12313,7 +12129,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12352,7 +12168,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12391,7 +12207,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12430,7 +12246,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12469,7 +12285,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12508,7 +12324,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12547,7 +12363,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12586,7 +12402,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12625,7 +12441,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12664,7 +12480,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12703,7 +12519,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12742,7 +12558,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12781,7 +12597,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12820,7 +12636,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12859,7 +12675,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12898,7 +12714,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12937,7 +12753,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12976,7 +12792,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -13015,7 +12831,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -13054,7 +12870,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13093,7 +12909,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13132,7 +12948,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13171,7 +12987,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13210,7 +13026,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13249,7 +13065,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13288,7 +13104,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13327,7 +13143,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13366,7 +13182,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13405,7 +13221,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13444,7 +13260,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13483,7 +13299,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13522,7 +13338,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13561,7 +13377,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13600,7 +13416,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13639,7 +13455,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13678,7 +13494,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13717,7 +13533,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13756,7 +13572,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13795,7 +13611,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13834,7 +13650,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13873,7 +13689,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13912,7 +13728,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13951,7 +13767,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13990,7 +13806,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -14029,7 +13845,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -14068,7 +13884,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -14107,7 +13923,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14146,7 +13962,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14185,7 +14001,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14224,7 +14040,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14263,7 +14079,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14302,7 +14118,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14341,7 +14157,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14380,7 +14196,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14419,7 +14235,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14458,7 +14274,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14497,7 +14313,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14536,7 +14352,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14575,7 +14391,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14614,7 +14430,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14653,7 +14469,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14692,7 +14508,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14731,7 +14547,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14770,7 +14586,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14809,7 +14625,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14848,7 +14664,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14887,7 +14703,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14926,7 +14742,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14965,7 +14781,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -15004,7 +14820,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -15043,7 +14859,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -15082,7 +14898,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -15121,7 +14937,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15160,7 +14976,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15199,7 +15015,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15238,7 +15054,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15277,7 +15093,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15316,7 +15132,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15355,7 +15171,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15394,7 +15210,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15433,7 +15249,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15472,7 +15288,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15511,7 +15327,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15550,7 +15366,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15589,7 +15405,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15628,7 +15444,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15667,7 +15483,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15706,7 +15522,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15745,7 +15561,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15784,7 +15600,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15823,7 +15639,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15862,7 +15678,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15901,7 +15717,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15940,7 +15756,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15979,7 +15795,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -16018,7 +15834,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -16057,7 +15873,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -16096,7 +15912,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -16135,7 +15951,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16174,7 +15990,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16213,7 +16029,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16252,7 +16068,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16291,7 +16107,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16330,7 +16146,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16369,7 +16185,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16408,7 +16224,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16447,7 +16263,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16486,7 +16302,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16525,7 +16341,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16564,7 +16380,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16603,7 +16419,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16642,7 +16458,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16681,7 +16497,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16720,7 +16536,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16759,7 +16575,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16798,7 +16614,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16837,7 +16653,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16876,7 +16692,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16915,7 +16731,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16954,7 +16770,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16993,7 +16809,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -17032,7 +16848,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -17071,7 +16887,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -17110,7 +16926,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -17149,7 +16965,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17188,7 +17004,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17227,7 +17043,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17266,7 +17082,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17305,7 +17121,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17344,7 +17160,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17383,7 +17199,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17422,7 +17238,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17461,7 +17277,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17500,7 +17316,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17539,7 +17355,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17578,7 +17394,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17617,7 +17433,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17656,7 +17472,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17695,7 +17511,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17734,7 +17550,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17773,7 +17589,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17812,7 +17628,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17851,7 +17667,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17890,7 +17706,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17929,7 +17745,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17968,7 +17784,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -18007,7 +17823,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -18046,7 +17862,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -18085,7 +17901,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -18124,7 +17940,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18163,7 +17979,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18202,7 +18018,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18241,7 +18057,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18280,7 +18096,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18319,7 +18135,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18358,7 +18174,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18397,7 +18213,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -18436,7 +18252,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -18475,7 +18291,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -18514,7 +18330,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18553,7 +18369,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18592,7 +18408,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18631,7 +18447,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18670,7 +18486,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18709,7 +18525,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18748,7 +18564,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18787,7 +18603,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18826,7 +18642,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18865,7 +18681,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18904,7 +18720,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18943,7 +18759,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18982,7 +18798,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -19021,7 +18837,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -19060,7 +18876,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -19099,7 +18915,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -19138,7 +18954,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -19177,7 +18993,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -19216,7 +19032,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -19255,7 +19071,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -19294,7 +19110,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -19333,7 +19149,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -19372,7 +19188,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -19411,7 +19227,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -19450,7 +19266,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -19489,7 +19305,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -19528,7 +19344,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -19567,7 +19383,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -19606,7 +19422,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -19645,7 +19461,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -19684,7 +19500,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -19723,7 +19539,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -19762,7 +19578,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19801,7 +19617,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19840,7 +19656,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19879,7 +19695,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19918,7 +19734,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19957,7 +19773,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19996,7 +19812,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -20035,7 +19851,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -20074,7 +19890,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -20113,7 +19929,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -20152,7 +19968,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -20191,7 +20007,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -20230,7 +20046,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -20269,7 +20085,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -20308,7 +20124,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -20347,7 +20163,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -20386,7 +20202,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -20421,21 +20237,23 @@
         <v>20121846.79498561</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>4.758</v>
+        <v>4.725</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
+        <v>1.05531746031746</v>
+      </c>
+      <c r="M508" t="n">
+        <v>1.006984126984127</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -20463,14 +20281,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20502,14 +20314,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20538,17 +20344,11 @@
         <v>19585963.34461629</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20580,14 +20380,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20619,14 +20413,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20658,14 +20446,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20697,14 +20479,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20736,14 +20512,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20775,14 +20545,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20814,14 +20578,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20853,14 +20611,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20892,14 +20644,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20931,14 +20677,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20970,14 +20710,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -21009,14 +20743,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -21048,14 +20776,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -21087,14 +20809,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21126,14 +20842,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21165,14 +20875,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21204,14 +20908,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21243,14 +20941,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21282,14 +20974,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21318,17 +21004,11 @@
         <v>18576196.82825051</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21357,17 +21037,11 @@
         <v>18733194.42914103</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21396,17 +21070,11 @@
         <v>18025135.01074103</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21435,17 +21103,11 @@
         <v>17617271.37464102</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21474,17 +21136,11 @@
         <v>17618312.90344102</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21516,14 +21172,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21552,17 +21202,11 @@
         <v>17806385.41740775</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21591,17 +21235,11 @@
         <v>17471974.40360775</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21630,17 +21268,11 @@
         <v>19689005.15250775</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21669,17 +21301,11 @@
         <v>19261415.42560775</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21708,17 +21334,11 @@
         <v>19290308.726928</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21747,17 +21367,11 @@
         <v>18682987.327328</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21789,14 +21403,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21828,14 +21436,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21867,14 +21469,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21906,14 +21502,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21945,14 +21535,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21984,14 +21568,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -22023,14 +21601,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -22062,14 +21634,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -22101,14 +21667,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22140,14 +21700,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22179,14 +21733,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22218,14 +21766,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +21799,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22296,14 +21832,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22335,14 +21865,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22374,14 +21898,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22413,14 +21931,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22452,14 +21964,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22491,14 +21997,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22530,14 +22030,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22569,14 +22063,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22608,14 +22096,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22647,14 +22129,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22686,14 +22162,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22725,14 +22195,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22764,14 +22228,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22803,14 +22261,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22842,14 +22294,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22881,14 +22327,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22920,14 +22360,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22959,14 +22393,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22998,14 +22426,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23037,14 +22459,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23073,23 +22489,15 @@
         <v>25950036.12103648</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>4.758</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
-        <v>1.085794451450189</v>
-      </c>
-      <c r="M576" t="n">
-        <v>1.000630914826498</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -23114,7 +22522,7 @@
         <v>26279540.17163648</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -23147,7 +22555,7 @@
         <v>25504959.61703648</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -23180,7 +22588,7 @@
         <v>23779869.59863648</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -23213,7 +22621,7 @@
         <v>23590959.98613648</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -23246,7 +22654,7 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23279,7 +22687,7 @@
         <v>23600214.41543648</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23312,7 +22720,7 @@
         <v>23406869.41973647</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -23345,7 +22753,7 @@
         <v>23282886.26303647</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -23378,7 +22786,7 @@
         <v>23897716.60213647</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23411,7 +22819,7 @@
         <v>24105240.36983648</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23444,7 +22852,7 @@
         <v>24733366.35255398</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23477,7 +22885,7 @@
         <v>24163846.58145244</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23510,7 +22918,7 @@
         <v>24164220.4492497</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23543,7 +22951,7 @@
         <v>24099354.6999497</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23576,7 +22984,7 @@
         <v>23595548.0588497</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23642,7 +23050,7 @@
         <v>22543913.0438497</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -23675,7 +23083,7 @@
         <v>22541247.6898497</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -23807,7 +23215,7 @@
         <v>20390669.56929042</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23873,7 +23281,7 @@
         <v>21265133.93286866</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23939,7 +23347,7 @@
         <v>20780231.41287421</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23972,7 +23380,7 @@
         <v>21402386.75682722</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -24005,7 +23413,7 @@
         <v>21294265.52578024</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -24038,7 +23446,7 @@
         <v>20855673.85448024</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -24071,7 +23479,7 @@
         <v>21602055.79638024</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24104,7 +23512,7 @@
         <v>20868443.80998024</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24137,7 +23545,7 @@
         <v>20416823.86028023</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -24170,7 +23578,7 @@
         <v>20448289.17353462</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -24302,7 +23710,7 @@
         <v>24569415.39372684</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -24698,7 +24106,7 @@
         <v>25100429.4190761</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24731,7 +24139,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24764,7 +24172,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24797,7 +24205,7 @@
         <v>25662780.5704761</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24830,7 +24238,7 @@
         <v>24983132.79496315</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24863,7 +24271,7 @@
         <v>24991218.78725508</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24896,7 +24304,7 @@
         <v>23759127.03855996</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24929,7 +24337,7 @@
         <v>23778562.23745996</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24962,7 +24370,7 @@
         <v>23184572.77305189</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24995,7 +24403,7 @@
         <v>21931130.93805189</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25028,7 +24436,7 @@
         <v>21235081.52625189</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -25061,7 +24469,7 @@
         <v>21891862.03605188</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25094,7 +24502,7 @@
         <v>21892451.54445188</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25127,7 +24535,7 @@
         <v>21992540.77055189</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25160,7 +24568,7 @@
         <v>20778823.31525189</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25655,7 +25063,7 @@
         <v>17889609.87294201</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25754,7 +25162,7 @@
         <v>16555071.43454201</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25787,7 +25195,7 @@
         <v>16665392.83234201</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25820,7 +25228,7 @@
         <v>17105547.97454201</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25853,7 +25261,7 @@
         <v>17105547.97454201</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25886,7 +25294,7 @@
         <v>17267710.4536778</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25919,7 +25327,7 @@
         <v>17620375.42775707</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -26249,7 +25657,7 @@
         <v>16586950.46725139</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26315,7 +25723,7 @@
         <v>16884755.75205139</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26348,7 +25756,7 @@
         <v>17543751.65835139</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26414,7 +25822,7 @@
         <v>17428309.15705139</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26447,7 +25855,7 @@
         <v>17035672.16035139</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26480,7 +25888,7 @@
         <v>18032303.73435139</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26513,7 +25921,7 @@
         <v>18302898.40535139</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26546,7 +25954,7 @@
         <v>17653710.54055139</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26579,7 +25987,7 @@
         <v>17653710.54055139</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26612,7 +26020,7 @@
         <v>17389849.69925139</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26645,7 +26053,7 @@
         <v>17039930.19675139</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26678,7 +26086,7 @@
         <v>17550084.13225139</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26711,7 +26119,7 @@
         <v>17528800.18665139</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26744,7 +26152,7 @@
         <v>17106298.65845139</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26777,7 +26185,7 @@
         <v>17411860.01585139</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26810,7 +26218,7 @@
         <v>17412147.67675139</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26843,7 +26251,7 @@
         <v>17411946.02485139</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26854,6 +26262,6 @@
       <c r="M690" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest XSR.xlsx
+++ b/BackTest/2020-01-26 BackTest XSR.xlsx
@@ -916,9 +916,11 @@
         <v>-467288.3296757623</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.737</v>
+      </c>
       <c r="J15" t="n">
         <v>4.725</v>
       </c>
@@ -955,9 +957,11 @@
         <v>-186760.8913757624</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.748</v>
+      </c>
       <c r="J16" t="n">
         <v>4.725</v>
       </c>
@@ -994,9 +998,11 @@
         <v>-747817.1498757624</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J17" t="n">
         <v>4.725</v>
       </c>
@@ -1033,9 +1039,11 @@
         <v>-297693.8315757624</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.749</v>
+      </c>
       <c r="J18" t="n">
         <v>4.725</v>
       </c>
@@ -1072,9 +1080,11 @@
         <v>-296360.8670757624</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.751</v>
+      </c>
       <c r="J19" t="n">
         <v>4.725</v>
       </c>
@@ -1111,9 +1121,11 @@
         <v>-286360.8670757624</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.761</v>
+      </c>
       <c r="J20" t="n">
         <v>4.725</v>
       </c>
@@ -1150,9 +1162,11 @@
         <v>385889.1348242376</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.765</v>
+      </c>
       <c r="J21" t="n">
         <v>4.725</v>
       </c>
@@ -1969,11 +1983,9 @@
         <v>-6370.374675762374</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>4.725</v>
       </c>
@@ -2049,11 +2061,9 @@
         <v>-826636.5661757623</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>4.725</v>
       </c>
@@ -2090,11 +2100,9 @@
         <v>-160569.2801757624</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.746</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>4.725</v>
       </c>
@@ -2131,11 +2139,9 @@
         <v>-626571.4412757624</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4.747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>4.725</v>
       </c>
@@ -2172,11 +2178,9 @@
         <v>-679040.1175757624</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>4.739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>4.725</v>
       </c>
@@ -2213,11 +2217,9 @@
         <v>-680109.9654757625</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.738</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>4.725</v>
       </c>
@@ -2254,11 +2256,9 @@
         <v>-973318.6639757624</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.737</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>4.725</v>
       </c>
@@ -3525,11 +3525,9 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>4.725</v>
       </c>
@@ -3566,11 +3564,9 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>4.725</v>
       </c>
@@ -3648,11 +3644,9 @@
         <v>984593.7089814829</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>4.725</v>
       </c>
@@ -3812,11 +3806,9 @@
         <v>1791263.625181483</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>4.725</v>
       </c>
@@ -3853,11 +3845,9 @@
         <v>1731845.528481483</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4.754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>4.725</v>
       </c>
@@ -3894,11 +3884,9 @@
         <v>2260533.529781483</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>4.725</v>
       </c>
@@ -20237,7 +20225,7 @@
         <v>20121846.79498561</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
@@ -20245,15 +20233,13 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
-        <v>1.05531746031746</v>
-      </c>
-      <c r="M508" t="n">
-        <v>1.006984126984127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -20281,8 +20267,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20314,8 +20306,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20344,11 +20342,17 @@
         <v>19585963.34461629</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20380,8 +20384,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20413,8 +20423,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20446,8 +20462,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20479,8 +20501,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20512,8 +20540,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20545,8 +20579,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20578,8 +20618,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20611,8 +20657,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20644,8 +20696,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20677,8 +20735,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20710,8 +20774,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20743,8 +20813,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20776,8 +20852,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20809,8 +20891,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20842,8 +20930,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20875,8 +20969,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20908,8 +21008,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20941,8 +21047,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20974,8 +21086,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21004,11 +21122,17 @@
         <v>18576196.82825051</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21037,11 +21161,17 @@
         <v>18733194.42914103</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21070,11 +21200,17 @@
         <v>18025135.01074103</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21103,11 +21239,17 @@
         <v>17617271.37464102</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21136,11 +21278,17 @@
         <v>17618312.90344102</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21172,8 +21320,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21202,11 +21356,17 @@
         <v>17806385.41740775</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21235,11 +21395,17 @@
         <v>17471974.40360775</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21268,11 +21434,17 @@
         <v>19689005.15250775</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21301,11 +21473,17 @@
         <v>19261415.42560775</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21334,11 +21512,17 @@
         <v>19290308.726928</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21367,11 +21551,17 @@
         <v>18682987.327328</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21403,8 +21593,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21436,8 +21632,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21469,8 +21671,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21502,8 +21710,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21535,8 +21749,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21568,8 +21788,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21601,8 +21827,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21634,8 +21866,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21667,8 +21905,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21700,8 +21944,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21733,8 +21983,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21766,8 +22022,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21799,8 +22061,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21832,8 +22100,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21865,8 +22139,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21898,8 +22178,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21931,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21964,8 +22256,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21994,15 +22292,23 @@
         <v>26576413.12498228</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4.725</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
+        <v>1.106534391534392</v>
+      </c>
+      <c r="M561" t="n">
+        <v>1.006984126984127</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -22027,7 +22333,7 @@
         <v>25774200.99643815</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22060,7 +22366,7 @@
         <v>26860539.32013462</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22093,7 +22399,7 @@
         <v>27501473.71319402</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22126,7 +22432,7 @@
         <v>27222692.52599402</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22159,7 +22465,7 @@
         <v>27067061.60339576</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22192,7 +22498,7 @@
         <v>25886461.32559576</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22225,7 +22531,7 @@
         <v>26093915.78799576</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22258,7 +22564,7 @@
         <v>25575129.26749576</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22291,7 +22597,7 @@
         <v>25757181.91103648</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22324,7 +22630,7 @@
         <v>25101781.33873648</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22357,7 +22663,7 @@
         <v>25300308.57813648</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22390,7 +22696,7 @@
         <v>25137190.64193648</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22423,7 +22729,7 @@
         <v>24248369.02773648</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22456,7 +22762,7 @@
         <v>24787496.92483648</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22489,7 +22795,7 @@
         <v>25950036.12103648</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22522,7 +22828,7 @@
         <v>26279540.17163648</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22555,7 +22861,7 @@
         <v>25504959.61703648</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22588,7 +22894,7 @@
         <v>23779869.59863648</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22621,7 +22927,7 @@
         <v>23590959.98613648</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22852,7 +23158,7 @@
         <v>24733366.35255398</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22885,7 +23191,7 @@
         <v>24163846.58145244</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22918,7 +23224,7 @@
         <v>24164220.4492497</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22951,7 +23257,7 @@
         <v>24099354.6999497</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23809,7 +24115,7 @@
         <v>24875651.01182684</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23941,7 +24247,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23974,7 +24280,7 @@
         <v>26464223.02290414</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24667,7 +24973,7 @@
         <v>21907173.8787182</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24700,7 +25006,7 @@
         <v>20774837.3175182</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24799,7 +25105,7 @@
         <v>20658863.1454182</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24832,7 +25138,7 @@
         <v>20376394.2550182</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -24865,7 +25171,7 @@
         <v>20393142.06454201</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -24898,7 +25204,7 @@
         <v>20354811.42634201</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
